--- a/InputFiles/CCDI/TC02_CCDI_phs003519_DiagAnatSite-C47PeriphNervAutonNervSyst_DiagClassSyst-IndicatForStudy_SampTumSt-Tumor.xlsx
+++ b/InputFiles/CCDI/TC02_CCDI_phs003519_DiagAnatSite-C47PeriphNervAutonNervSyst_DiagClassSyst-IndicatForStudy_SampTumSt-Tumor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\epishinavv\git\Commons_Automation\InputFiles\CCDI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{398328B4-F8F2-4E3B-BBF9-725529739A53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3782C16E-2B6F-44A2-BCBB-BA206DC546DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1344" yWindow="624" windowWidth="20028" windowHeight="10440" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -315,11 +315,7 @@
     COUNT(DISTINCT std.dbgap_accession) AS "Studies",
     COUNT(DISTINCT prt.participant_id) AS "Participants",
     COUNT(DISTINCT smp.sample_id) AS "Samples",
-    CASE 
-        WHEN COUNT(DISTINCT seq.id) &gt;= 1000 
-        THEN printf('%,d', COUNT(DISTINCT seq.id)) 
-        ELSE CAST(COUNT(DISTINCT seq.id) AS TEXT)
-    END AS "Files"
+  COUNT(DISTINCT seq.id)  AS "Files"
 FROM 
     df_study std
 LEFT JOIN 
